--- a/excel/files_07_data_cleaning_solutions/exercise01/calories.xlsx
+++ b/excel/files_07_data_cleaning_solutions/exercise01/calories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis2/data_analysis/excel/files_07_data_cleaning_solutions/exercise01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{ED6AC861-8425-46CE-A2AE-9B15D87274FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF9A19EC-A118-470B-8D03-D191F4D87BCB}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{ED6AC861-8425-46CE-A2AE-9B15D87274FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6B5F286-DD5F-4F5D-B2C3-F0891CB2A8A5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9616,14 +9616,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="37.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7265625" customWidth="1"/>
     <col min="4" max="4" width="18.08984375" customWidth="1"/>
     <col min="5" max="5" width="16.36328125" customWidth="1"/>
